--- a/biology/Médecine/Argininémie/Argininémie.xlsx
+++ b/biology/Médecine/Argininémie/Argininémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'argininémie est une maladie métabolique congénitale en rapport avec une anomalie du cycle de l'urée
 Les nouveau-nés affectés par cette maladie présentent des épisodes hyperammoniémies pouvant menacer la vie.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Déficit en arginase
 Hyperargininémie</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutation du gène ARG1 (en) 608313 localisé sur le locus q23 du chromosome 6</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,6 +620,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -628,6 +648,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -635,7 +657,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -653,7 +675,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Transmission autosomique récessive</t>
         </is>
@@ -665,7 +689,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,6 +708,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -691,7 +717,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arginin%C3%A9mie</t>
+          <t>Argininémie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -709,7 +735,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site en français de renseignement sur les maladies rares et les médicaments orphelins
 (en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 207 800www.ncbi.nlm.nih.gov
